--- a/DataDrivenFramework/TestData/Data.xlsx
+++ b/DataDrivenFramework/TestData/Data.xlsx
@@ -66,10 +66,10 @@
     <t>Pass</t>
   </si>
   <si>
-    <t>t143@yopmail.com</t>
-  </si>
-  <si>
-    <t>t144@yopmail.com</t>
+    <t>t150@yopmail.com</t>
+  </si>
+  <si>
+    <t>t151@yopmail.com</t>
   </si>
 </sst>
 </file>
@@ -523,7 +523,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
